--- a/exportTemplates/Reports-tableTennis-default.xlsx
+++ b/exportTemplates/Reports-tableTennis-default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Стратегния 1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Фильтры" sheetId="3" r:id="rId3"/>
     <sheet name="other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="73">
   <si>
     <t>Дата добавления</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>${table:statistics.snapshot.end.displayTime}</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>${table:statistics.score.resulting}</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -626,11 +632,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -693,45 +727,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,6 +774,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,8 +1156,8 @@
     <col min="19" max="19" width="4.140625" customWidth="1"/>
     <col min="20" max="20" width="4.5703125" customWidth="1"/>
     <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="44.5703125" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" customWidth="1"/>
     <col min="25" max="25" width="6" customWidth="1"/>
     <col min="26" max="26" width="6.85546875" customWidth="1"/>
@@ -1134,7 +1177,7 @@
     <col min="42" max="42" width="17" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1198,71 +1241,14 @@
       <c r="U1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP1" s="21" t="s">
+      <c r="V1" s="51" t="s">
         <v>0</v>
       </c>
+      <c r="W1" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1326,71 +1312,14 @@
       <c r="U2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="19" t="s">
+      <c r="V2" s="53" t="s">
         <v>11</v>
       </c>
+      <c r="W2" s="53" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L11" s="3"/>
     </row>
   </sheetData>
@@ -1403,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1720,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -1769,116 +1698,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="47" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="29" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="29" t="s">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32" t="s">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="23"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="39"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2004,7 +1933,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="24"/>
+      <c r="AP3" s="40"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2139,11 +2068,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -2151,6 +2075,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2209,116 +2138,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="47" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="48" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="48" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="22" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="29" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="29" t="s">
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="32" t="s">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="23"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="39"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2444,7 +2373,7 @@
       <c r="AO3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="24"/>
+      <c r="AP3" s="40"/>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2579,11 +2508,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
@@ -2591,6 +2515,11 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
